--- a/data/factors/factor5.xlsx
+++ b/data/factors/factor5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0803\data\factors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0808\data\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0BD0BE-48CF-407D-BB04-88FFC7CC4884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C428853C-14D2-401C-B7DC-F2CEC73AF3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{134C4517-BA77-4D88-85B8-43942DA3B685}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
   <si>
     <t>에이텍</t>
   </si>
@@ -149,9 +149,6 @@
     <t>뷰노</t>
   </si>
   <si>
-    <t>제이엘케이</t>
-  </si>
-  <si>
     <t>비트컴퓨터</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
   </si>
   <si>
     <t>아모레퍼시픽</t>
-  </si>
-  <si>
-    <t>현대바이오</t>
   </si>
   <si>
     <t>현대글로비스</t>
@@ -796,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4615A6BB-B5E7-4076-B816-BA6D33436BB7}">
-  <dimension ref="A1:A131"/>
+  <dimension ref="A1:A129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -809,37 +803,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.6">
@@ -854,7 +848,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.6">
@@ -869,17 +863,17 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.6">
@@ -889,42 +883,42 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.6">
@@ -934,32 +928,32 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.6">
@@ -974,7 +968,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.6">
@@ -989,27 +983,27 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.6">
@@ -1024,17 +1018,17 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.6">
@@ -1044,17 +1038,17 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.6">
@@ -1064,57 +1058,57 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.6">
@@ -1129,17 +1123,17 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.6">
@@ -1159,7 +1153,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.6">
@@ -1174,12 +1168,12 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.6">
@@ -1189,7 +1183,7 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.6">
@@ -1199,22 +1193,22 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.6">
@@ -1229,67 +1223,67 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.6">
@@ -1299,77 +1293,77 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A108" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A109" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A110" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.6">
@@ -1379,17 +1373,17 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.6">
@@ -1399,72 +1393,62 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A124" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A126" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A127" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A128" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A129" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A130" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A131" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A131">
-    <sortCondition ref="A1:A131"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A130">
+    <sortCondition ref="A67:A130"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
